--- a/experiment_results/examdb_assumption_all_bugs.xlsx
+++ b/experiment_results/examdb_assumption_all_bugs.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Tarantula" sheetId="1" state="visible" r:id="rId1"/>
@@ -83,86 +83,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -1923,19 +1855,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>1.593625498007968</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="E35" t="n">
         <v>41</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>1.593625498007968</v>
+        <v>0.796812749003984</v>
       </c>
       <c r="H35" t="n">
         <v>4</v>
@@ -2584,7 +2516,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -4723,7 +4655,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -6862,7 +6794,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -9001,7 +8933,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -11140,7 +11072,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -13279,7 +13211,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -15418,7 +15350,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -15510,19 +15442,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.398406374501992</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.796812749003984</v>
+        <v>6.772908366533864</v>
       </c>
       <c r="H2" t="n">
         <v>17</v>
@@ -15552,19 +15484,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.796812749003984</v>
+        <v>1.593625498007968</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.195219123505976</v>
+        <v>3.98406374501992</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -15846,19 +15778,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>2.390438247011952</v>
+        <v>3.98406374501992</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>2.788844621513944</v>
+        <v>6.374501992031872</v>
       </c>
       <c r="H10" t="n">
         <v>16</v>
@@ -16014,19 +15946,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.796812749003984</v>
+        <v>1.593625498007968</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>1.195219123505976</v>
+        <v>3.98406374501992</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
@@ -16098,19 +16030,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>6.374501992031872</v>
+        <v>11.55378486055777</v>
       </c>
       <c r="E16" t="n">
         <v>33</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>7.171314741035857</v>
+        <v>15.93625498007968</v>
       </c>
       <c r="H16" t="n">
         <v>40</v>
@@ -16560,19 +16492,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>0.398406374501992</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.796812749003984</v>
+        <v>6.772908366533864</v>
       </c>
       <c r="H27" t="n">
         <v>17</v>
@@ -17022,19 +16954,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>0.796812749003984</v>
+        <v>2.788844621513944</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G38" t="n">
-        <v>1.195219123505976</v>
+        <v>6.374501992031872</v>
       </c>
       <c r="H38" t="n">
         <v>16</v>
@@ -17190,19 +17122,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>0.398406374501992</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G42" t="n">
-        <v>0.796812749003984</v>
+        <v>6.772908366533864</v>
       </c>
       <c r="H42" t="n">
         <v>17</v>
@@ -17557,7 +17489,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -19696,7 +19628,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -21835,7 +21767,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -23974,7 +23906,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -26113,7 +26045,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -28252,7 +28184,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -30391,7 +30323,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -32530,7 +32462,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -34669,7 +34601,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -36808,7 +36740,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -38947,7 +38879,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -41086,7 +41018,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -43225,7 +43157,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -45364,7 +45296,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -47503,7 +47435,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -49642,7 +49574,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -51781,7 +51713,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -53920,7 +53852,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -56059,7 +55991,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -56151,19 +56083,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.398406374501992</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.796812749003984</v>
+        <v>6.772908366533864</v>
       </c>
       <c r="H2" t="n">
         <v>17</v>
@@ -56193,19 +56125,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.796812749003984</v>
+        <v>1.593625498007968</v>
       </c>
       <c r="E3" t="n">
         <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.195219123505976</v>
+        <v>3.98406374501992</v>
       </c>
       <c r="H3" t="n">
         <v>10</v>
@@ -56487,19 +56419,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D10" t="n">
-        <v>2.390438247011952</v>
+        <v>3.98406374501992</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>2.788844621513944</v>
+        <v>6.374501992031872</v>
       </c>
       <c r="H10" t="n">
         <v>16</v>
@@ -56655,19 +56587,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>0.796812749003984</v>
+        <v>1.593625498007968</v>
       </c>
       <c r="E14" t="n">
         <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>1.195219123505976</v>
+        <v>3.98406374501992</v>
       </c>
       <c r="H14" t="n">
         <v>10</v>
@@ -56739,19 +56671,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
-        <v>6.374501992031872</v>
+        <v>11.55378486055777</v>
       </c>
       <c r="E16" t="n">
         <v>33</v>
       </c>
       <c r="F16" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G16" t="n">
-        <v>7.171314741035857</v>
+        <v>15.93625498007968</v>
       </c>
       <c r="H16" t="n">
         <v>40</v>
@@ -57201,19 +57133,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>0.398406374501992</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="E27" t="n">
         <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.796812749003984</v>
+        <v>6.772908366533864</v>
       </c>
       <c r="H27" t="n">
         <v>17</v>
@@ -57663,19 +57595,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>0.796812749003984</v>
+        <v>2.788844621513944</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G38" t="n">
-        <v>1.195219123505976</v>
+        <v>6.374501992031872</v>
       </c>
       <c r="H38" t="n">
         <v>16</v>
@@ -57831,19 +57763,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>0.398406374501992</v>
+        <v>1.99203187250996</v>
       </c>
       <c r="E42" t="n">
         <v>5</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G42" t="n">
-        <v>0.796812749003984</v>
+        <v>6.772908366533864</v>
       </c>
       <c r="H42" t="n">
         <v>17</v>
@@ -58198,7 +58130,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -60337,7 +60269,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -62476,7 +62408,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -64615,6 +64547,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>